--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>470614.7238917983</v>
+        <v>466468.0744780838</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33961271.24965324</v>
+        <v>33961271.24965322</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6615170.302351887</v>
+        <v>6615170.30235189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4781873.569825297</v>
+        <v>4781873.569825298</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="F2" t="n">
-        <v>2.066753047649844</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.677227098474519</v>
+        <v>2.677227098474515</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.40220350370247</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,43 +828,43 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.40220350370247</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>3.262548922260276</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>30.58073358141466</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="T6" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="U6" t="n">
-        <v>41.31500304752735</v>
+        <v>30.58073358141468</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>16.07267624245948</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>16.0726762424595</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C9" t="n">
-        <v>41.31500304752733</v>
+        <v>30.58073358141467</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>30.58073358141469</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="10">
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>38.83972215570805</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>16.0726762424595</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>246.8383659365003</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>248.7045698903821</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>61.67060262641429</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>73.4609303272113</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>373.6251625596989</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>165.4611006721242</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1782,7 +1782,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>91.76459763478742</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>106.0784950958756</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>48.50583343253406</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>199.169549342004</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>31.66775530976605</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>152.8093197685214</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>393.0106553912407</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>64.79748953110821</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>269.1250157923006</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>254.3924510007797</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>129.6466829182107</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.4843225154696</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>62.77734072401138</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>77.89034149182557</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>127.1238619986015</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.14946114343314</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>239.7800148239768</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6021945207021</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2557,22 +2557,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>416.806473773601</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>85.83313385476592</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.7852857916396</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.5298027268632</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.551359884014</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>163.083298214497</v>
       </c>
       <c r="H28" t="n">
-        <v>108.5356957737934</v>
+        <v>130.9275289145745</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7998031327776</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.7800148239768</v>
+        <v>143.5262693645122</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6021945207021</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2797,16 +2797,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>392.7375273366596</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>138.5810242355352</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.083298214497</v>
+        <v>54.66379489581881</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.9275289145745</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>142.7998031327776</v>
       </c>
       <c r="T31" t="n">
-        <v>239.7800148239768</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6021945207021</v>
@@ -3012,10 +3012,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>120.0320047635515</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3031,19 +3031,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>147.2187407439373</v>
       </c>
       <c r="G32" t="n">
-        <v>188.1348204716865</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.9275289145745</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>62.14946114343314</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7998031327776</v>
+        <v>22.35776187950719</v>
       </c>
       <c r="T34" t="n">
         <v>239.7800148239768</v>
@@ -3246,16 +3246,16 @@
         <v>275.6021945207021</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>166.8803013632788</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>297.6302486778281</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>182.831602947131</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.4843225154696</v>
@@ -3322,10 +3322,10 @@
         <v>209.551359884014</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>80.9100664144179</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>103.9468586173894</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H37" t="n">
         <v>130.9275289145745</v>
       </c>
       <c r="I37" t="n">
-        <v>62.14946114343314</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>275.6021945207021</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>79.94458739782112</v>
+        <v>412.1282879680814</v>
       </c>
       <c r="G38" t="n">
         <v>395.4843225154696</v>
       </c>
       <c r="H38" t="n">
-        <v>266.7852857916396</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.5298027268632</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>145.2352791866341</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>113.8717326981871</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.9275289145745</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.14946114343314</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>239.7800148239768</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6021945207021</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3748,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>148.6038832528953</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>39.5298027268632</v>
       </c>
       <c r="T41" t="n">
-        <v>209.551359884014</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>159.8106989725169</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>81.73155233310315</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.9275289145745</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.14946114343314</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.7800148239768</v>
+        <v>81.37680822107907</v>
       </c>
       <c r="U43" t="n">
         <v>275.6021945207021</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>118.2336282177585</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3985,16 +3985,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4843225154696</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>266.7852857916396</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>209.551359884014</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>94.58812191922654</v>
       </c>
     </row>
     <row r="45">
@@ -4140,10 +4140,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>82.86746698909865</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,7 +4152,7 @@
         <v>163.083298214497</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>26.19002492753804</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>239.7800148239768</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6021945207021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.348633254841271</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="C2" t="n">
-        <v>2.348633254841271</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="D2" t="n">
-        <v>2.348633254841271</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="E2" t="n">
-        <v>2.348633254841271</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="F2" t="n">
         <v>0.2610039137808221</v>
@@ -4330,13 +4330,13 @@
         <v>0.2610039137808221</v>
       </c>
       <c r="J2" t="n">
-        <v>1.160310701713749</v>
+        <v>1.160310701713751</v>
       </c>
       <c r="K2" t="n">
-        <v>2.50813845558963</v>
+        <v>2.508138455589632</v>
       </c>
       <c r="L2" t="n">
-        <v>4.180237967355346</v>
+        <v>4.180237967355347</v>
       </c>
       <c r="M2" t="n">
         <v>6.040770853278586</v>
@@ -4345,13 +4345,13 @@
         <v>7.931409106423309</v>
       </c>
       <c r="O2" t="n">
-        <v>9.716685196678942</v>
+        <v>9.71668519667894</v>
       </c>
       <c r="P2" t="n">
         <v>11.24037703589</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.38460615143388</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R2" t="n">
         <v>13.05019568904111</v>
@@ -4369,13 +4369,13 @@
         <v>13.05019568904111</v>
       </c>
       <c r="W2" t="n">
-        <v>12.23514514047847</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X2" t="n">
-        <v>8.939641178599405</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.644137216720338</v>
+        <v>13.05019568904111</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.96527371021973</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="C3" t="n">
-        <v>2.96527371021973</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="D3" t="n">
-        <v>2.96527371021973</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="E3" t="n">
-        <v>2.96527371021973</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2610039137808221</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H3" t="n">
         <v>0.2610039137808221</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4561956203818616</v>
+        <v>0.4561956203818615</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9918165824064465</v>
+        <v>0.9918165824064463</v>
       </c>
       <c r="K3" t="n">
-        <v>1.907278118958099</v>
+        <v>1.907278118958098</v>
       </c>
       <c r="L3" t="n">
-        <v>3.138229129822361</v>
+        <v>3.13822912982236</v>
       </c>
       <c r="M3" t="n">
-        <v>4.574690899292686</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N3" t="n">
-        <v>6.049171537475494</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O3" t="n">
-        <v>7.398033258238116</v>
+        <v>7.398033258238114</v>
       </c>
       <c r="P3" t="n">
-        <v>8.480613706900035</v>
+        <v>8.480613706900034</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.204290067271584</v>
+        <v>9.204290067271581</v>
       </c>
       <c r="R3" t="n">
-        <v>9.556281633977864</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="S3" t="n">
-        <v>6.260777672098797</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="T3" t="n">
-        <v>6.260777672098797</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="U3" t="n">
-        <v>2.96527371021973</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="V3" t="n">
-        <v>2.96527371021973</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="W3" t="n">
-        <v>2.96527371021973</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="X3" t="n">
-        <v>2.96527371021973</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.96527371021973</v>
+        <v>9.556281633977861</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.97287505111693</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="C4" t="n">
-        <v>4.97287505111693</v>
+        <v>8.338324551704998</v>
       </c>
       <c r="D4" t="n">
-        <v>4.97287505111693</v>
+        <v>8.338324551704998</v>
       </c>
       <c r="E4" t="n">
-        <v>4.97287505111693</v>
+        <v>8.338324551704998</v>
       </c>
       <c r="F4" t="n">
-        <v>3.556507875659889</v>
+        <v>8.338324551704998</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2610039137808221</v>
+        <v>8.338324551704998</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2610039137808221</v>
+        <v>8.338324551704998</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2610039137808221</v>
+        <v>8.338324551704998</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5970352923692028</v>
+        <v>8.674355930293377</v>
       </c>
       <c r="K4" t="n">
-        <v>1.149238072150546</v>
+        <v>9.226558710074722</v>
       </c>
       <c r="L4" t="n">
-        <v>1.855867513507673</v>
+        <v>9.933188151431848</v>
       </c>
       <c r="M4" t="n">
-        <v>2.600909182660232</v>
+        <v>10.67822982058441</v>
       </c>
       <c r="N4" t="n">
-        <v>3.328235426170353</v>
+        <v>11.40555606409453</v>
       </c>
       <c r="O4" t="n">
-        <v>4.000038933215762</v>
+        <v>12.07735957113994</v>
       </c>
       <c r="P4" t="n">
-        <v>4.574882891135243</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.97287505111693</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R4" t="n">
-        <v>4.97287505111693</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="S4" t="n">
-        <v>4.97287505111693</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T4" t="n">
-        <v>4.97287505111693</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U4" t="n">
-        <v>4.97287505111693</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V4" t="n">
-        <v>4.97287505111693</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W4" t="n">
-        <v>4.97287505111693</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X4" t="n">
-        <v>4.97287505111693</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.97287505111693</v>
+        <v>9.754691727162038</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064263</v>
+        <v>88.73594738064257</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549115</v>
       </c>
       <c r="E5" t="n">
         <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952728</v>
+        <v>7.922179662952684</v>
       </c>
       <c r="J5" t="n">
-        <v>18.9858170903027</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176022</v>
+        <v>35.56734164176019</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654181</v>
+        <v>56.13818908654176</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682886</v>
+        <v>79.02722044682882</v>
       </c>
       <c r="N5" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
-        <v>124.2498119529546</v>
+        <v>124.2498119529545</v>
       </c>
       <c r="P5" t="n">
-        <v>142.9948879228476</v>
+        <v>142.9948879228475</v>
       </c>
       <c r="Q5" t="n">
-        <v>157.0716593183938</v>
+        <v>157.0716593183937</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.097182601319</v>
+        <v>145.0971826013189</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="C6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="D6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="E6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="F6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I6" t="n">
-        <v>5.706527910441171</v>
+        <v>5.70652791044117</v>
       </c>
       <c r="J6" t="n">
         <v>12.29595456866669</v>
@@ -4673,25 +4673,25 @@
         <v>117.6594827452864</v>
       </c>
       <c r="S6" t="n">
-        <v>86.76985286506957</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="T6" t="n">
-        <v>45.03752655443588</v>
+        <v>34.19483012401904</v>
       </c>
       <c r="U6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="V6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="W6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="X6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="C7" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="D7" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="E7" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="F7" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="J7" t="n">
-        <v>7.439194768028656</v>
+        <v>7.439194768028655</v>
       </c>
       <c r="K7" t="n">
         <v>14.23261768427069</v>
@@ -4761,16 +4761,16 @@
         <v>61.2725530619707</v>
       </c>
       <c r="V7" t="n">
-        <v>61.2725530619707</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="W7" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="X7" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802187</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4792,13 +4792,13 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
         <v>7.922179662952697</v>
@@ -4807,19 +4807,19 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654176</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
         <v>142.9948879228476</v>
@@ -4831,16 +4831,16 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
         <v>164.4449616415467</v>
@@ -4849,7 +4849,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.76985286506954</v>
+        <v>34.19483012401903</v>
       </c>
       <c r="C9" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.70652791044117</v>
+        <v>5.706527910441171</v>
       </c>
       <c r="J9" t="n">
         <v>12.29595456866669</v>
@@ -4916,19 +4916,19 @@
         <v>117.6594827452864</v>
       </c>
       <c r="U9" t="n">
-        <v>86.76985286506954</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="V9" t="n">
-        <v>86.76985286506954</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="W9" t="n">
-        <v>86.76985286506954</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="X9" t="n">
-        <v>86.76985286506954</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.76985286506954</v>
+        <v>75.92715643465272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="C10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="D10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="E10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="F10" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>61.2725530619707</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028655</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
         <v>14.23261768427069</v>
@@ -4986,28 +4986,28 @@
         <v>61.2725530619707</v>
       </c>
       <c r="R10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="S10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="T10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="U10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="V10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="W10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="X10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1997.710627381563</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="C11" t="n">
-        <v>1559.568154564987</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D11" t="n">
-        <v>1308.351417301975</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E11" t="n">
-        <v>874.5766724602698</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F11" t="n">
         <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W11" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X11" t="n">
-        <v>1997.710627381563</v>
+        <v>1538.101794175671</v>
       </c>
       <c r="Y11" t="n">
-        <v>1997.710627381563</v>
+        <v>1129.815670475324</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,10 +5111,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043086</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>577.480146723858</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>411.6021539253807</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>241.8441501761179</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>241.8441501761179</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2286.124617521261</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.877393424667</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2043.877393424667</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1756.921885295098</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W13" t="n">
-        <v>1756.921885295098</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.53013062851</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1955.47212285877</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="C14" t="n">
-        <v>1955.47212285877</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="D14" t="n">
-        <v>1578.072968758064</v>
+        <v>642.2064060610846</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.298223916359</v>
+        <v>642.2064060610846</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>214.3389764702924</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X14" t="n">
-        <v>1955.47212285877</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y14" t="n">
-        <v>1955.47212285877</v>
+        <v>1078.11619088664</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043032</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.196554659879</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C16" t="n">
-        <v>856.6348431431041</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D16" t="n">
-        <v>690.7568503446269</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E16" t="n">
-        <v>520.9988465953642</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F16" t="n">
-        <v>344.2917925571204</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H16" t="n">
         <v>47.20655154895474</v>
@@ -5436,25 +5436,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.331138940781</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2267.636064685325</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.388840588732</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>2025.388840588732</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1738.433332459162</v>
+        <v>1588.117187857782</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.406928045454</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="X16" t="n">
-        <v>1221.015173378866</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y16" t="n">
-        <v>1221.015173378866</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.4265856715612</v>
+        <v>1110.030088953173</v>
       </c>
       <c r="C17" t="n">
-        <v>765.4265856715612</v>
+        <v>1110.030088953173</v>
       </c>
       <c r="D17" t="n">
-        <v>765.4265856715612</v>
+        <v>1110.030088953173</v>
       </c>
       <c r="E17" t="n">
-        <v>765.4265856715612</v>
+        <v>676.2553441114683</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>248.387914520676</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
         <v>276.0532770435809</v>
@@ -5521,7 +5521,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5551,16 +5551,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381564</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792597</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371908</v>
+        <v>1536.329659438081</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715612</v>
+        <v>1536.329659438081</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043088</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960908</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987883</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851425</v>
+        <v>713.9024503859703</v>
       </c>
       <c r="C19" t="n">
-        <v>616.0817647851425</v>
+        <v>713.9024503859703</v>
       </c>
       <c r="D19" t="n">
-        <v>616.0817647851425</v>
+        <v>548.024457587493</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>378.2664538382302</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>201.5593997999864</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.331138940781</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M19" t="n">
-        <v>1412.355695376306</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180195</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351144</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399887</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270317</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856609</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041296</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1150.205539167272</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C20" t="n">
-        <v>1150.205539167272</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D20" t="n">
-        <v>1150.205539167272</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
         <v>716.4307943255671</v>
@@ -5746,19 +5746,19 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5773,31 +5773,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1995.338506556666</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.472122858771</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="X20" t="n">
-        <v>1955.472122858771</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.185999158424</v>
+        <v>1590.483051967699</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043086</v>
@@ -5846,7 +5846,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.1113136517137</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C22" t="n">
-        <v>559.5496021349386</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D22" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E22" t="n">
-        <v>223.9136055871986</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895475</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895475</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5916,46 +5916,46 @@
         <v>564.2504555545215</v>
       </c>
       <c r="L22" t="n">
-        <v>688.1212571728196</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M22" t="n">
-        <v>1272.302332591134</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1842.060047552669</v>
+        <v>1364.4344430832</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
         <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>2088.484127152484</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1801.528619022914</v>
       </c>
       <c r="W22" t="n">
-        <v>1151.349603056593</v>
+        <v>1529.502214609206</v>
       </c>
       <c r="X22" t="n">
-        <v>1151.349603056593</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.9299323707007</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1150.527902882206</v>
+        <v>1580.530372456848</v>
       </c>
       <c r="C23" t="n">
-        <v>1150.527902882206</v>
+        <v>1580.530372456848</v>
       </c>
       <c r="D23" t="n">
-        <v>1150.527902882206</v>
+        <v>1144.620587631293</v>
       </c>
       <c r="E23" t="n">
-        <v>716.7531580405007</v>
+        <v>1144.620587631293</v>
       </c>
       <c r="F23" t="n">
         <v>716.7531580405007</v>
@@ -5983,22 +5983,22 @@
         <v>317.2740443885113</v>
       </c>
       <c r="H23" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I23" t="n">
-        <v>119.8847973840879</v>
+        <v>119.8847973840881</v>
       </c>
       <c r="J23" t="n">
-        <v>279.4928753818405</v>
+        <v>279.4928753818408</v>
       </c>
       <c r="K23" t="n">
-        <v>518.704010174478</v>
+        <v>518.7040101744783</v>
       </c>
       <c r="L23" t="n">
-        <v>815.4665753802142</v>
+        <v>815.4665753802145</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.672109196298</v>
+        <v>1145.672109196299</v>
       </c>
       <c r="N23" t="n">
         <v>1481.220713768784</v>
@@ -6013,28 +6013,28 @@
         <v>2271.569714617668</v>
       </c>
       <c r="R23" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S23" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="T23" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="U23" t="n">
-        <v>2326.286431237692</v>
+        <v>2130.629081249468</v>
       </c>
       <c r="V23" t="n">
-        <v>1963.669481171519</v>
+        <v>2130.629081249468</v>
       </c>
       <c r="W23" t="n">
-        <v>1558.814026582552</v>
+        <v>2130.629081249468</v>
       </c>
       <c r="X23" t="n">
-        <v>1558.814026582552</v>
+        <v>1711.486617828778</v>
       </c>
       <c r="Y23" t="n">
-        <v>1150.527902882206</v>
+        <v>1711.486617828778</v>
       </c>
     </row>
     <row r="24">
@@ -6059,25 +6059,25 @@
         <v>163.9732570753017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.61477182977811</v>
+        <v>79.61477182977809</v>
       </c>
       <c r="H24" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I24" t="n">
-        <v>82.43638848887582</v>
+        <v>82.43638848887581</v>
       </c>
       <c r="J24" t="n">
         <v>177.4978663195394</v>
       </c>
       <c r="K24" t="n">
-        <v>319.2805044129579</v>
+        <v>339.9730731015617</v>
       </c>
       <c r="L24" t="n">
-        <v>537.7484706172661</v>
+        <v>558.4410393058699</v>
       </c>
       <c r="M24" t="n">
-        <v>792.6902827094362</v>
+        <v>813.38285139804</v>
       </c>
       <c r="N24" t="n">
         <v>1054.379645964648</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>645.4978396525767</v>
+        <v>923.8838947239924</v>
       </c>
       <c r="C25" t="n">
-        <v>472.9361281358016</v>
+        <v>751.3221832072173</v>
       </c>
       <c r="D25" t="n">
-        <v>472.9361281358016</v>
+        <v>585.44419040874</v>
       </c>
       <c r="E25" t="n">
-        <v>303.1781243865389</v>
+        <v>415.6861866594773</v>
       </c>
       <c r="F25" t="n">
-        <v>126.4710703482951</v>
+        <v>238.9791326212335</v>
       </c>
       <c r="G25" t="n">
-        <v>47.79395773028943</v>
+        <v>238.9791326212335</v>
       </c>
       <c r="H25" t="n">
-        <v>47.79395773028943</v>
+        <v>110.5711912085047</v>
       </c>
       <c r="I25" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="J25" t="n">
         <v>107.4324739775689</v>
       </c>
       <c r="K25" t="n">
-        <v>480.1953309712623</v>
+        <v>205.4368764001267</v>
       </c>
       <c r="L25" t="n">
-        <v>1023.817106105304</v>
+        <v>498.4082835275829</v>
       </c>
       <c r="M25" t="n">
-        <v>1156.046363614863</v>
+        <v>1089.858510439914</v>
       </c>
       <c r="N25" t="n">
-        <v>1313.695560940122</v>
+        <v>1661.202454910463</v>
       </c>
       <c r="O25" t="n">
-        <v>1852.595831203926</v>
+        <v>2200.102725174268</v>
       </c>
       <c r="P25" t="n">
         <v>2302.125461467672</v>
       </c>
       <c r="Q25" t="n">
-        <v>2372.760715827154</v>
+        <v>2372.760715827153</v>
       </c>
       <c r="R25" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S25" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="T25" t="n">
         <v>2147.495851338737</v>
       </c>
       <c r="U25" t="n">
-        <v>1869.109796267321</v>
+        <v>2147.495851338737</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.154288137752</v>
+        <v>1860.540343209167</v>
       </c>
       <c r="W25" t="n">
-        <v>1310.127883724043</v>
+        <v>1588.513938795459</v>
       </c>
       <c r="X25" t="n">
-        <v>1064.736129057456</v>
+        <v>1343.122184128871</v>
       </c>
       <c r="Y25" t="n">
-        <v>837.3164583715638</v>
+        <v>1115.70251344298</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1711.801182079183</v>
+        <v>1332.587812321992</v>
       </c>
       <c r="C26" t="n">
-        <v>1273.658709262606</v>
+        <v>1332.587812321992</v>
       </c>
       <c r="D26" t="n">
-        <v>837.7489244370504</v>
+        <v>896.6780274964362</v>
       </c>
       <c r="E26" t="n">
-        <v>403.9741795953456</v>
+        <v>475.6613873210817</v>
       </c>
       <c r="F26" t="n">
-        <v>403.9741795953456</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="G26" t="n">
-        <v>317.2740443885113</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="H26" t="n">
         <v>47.79395773028943</v>
       </c>
       <c r="I26" t="n">
-        <v>119.8847973840881</v>
+        <v>119.8847973840885</v>
       </c>
       <c r="J26" t="n">
-        <v>279.4928753818407</v>
+        <v>279.4928753818411</v>
       </c>
       <c r="K26" t="n">
-        <v>518.7040101744782</v>
+        <v>518.7040101744786</v>
       </c>
       <c r="L26" t="n">
-        <v>815.4665753802144</v>
+        <v>815.4665753802149</v>
       </c>
       <c r="M26" t="n">
         <v>1145.672109196299</v>
@@ -6241,37 +6241,37 @@
         <v>1481.220713768784</v>
       </c>
       <c r="O26" t="n">
-        <v>1798.069746028391</v>
+        <v>1798.069746028392</v>
       </c>
       <c r="P26" t="n">
         <v>2068.493064500526</v>
       </c>
       <c r="Q26" t="n">
-        <v>2271.569714617668</v>
+        <v>2271.569714617669</v>
       </c>
       <c r="R26" t="n">
         <v>2389.697886514472</v>
       </c>
       <c r="S26" t="n">
-        <v>2349.768792850973</v>
+        <v>2389.697886514472</v>
       </c>
       <c r="T26" t="n">
-        <v>2138.10075256409</v>
+        <v>2178.029846227589</v>
       </c>
       <c r="U26" t="n">
-        <v>2138.10075256409</v>
+        <v>2178.029846227589</v>
       </c>
       <c r="V26" t="n">
-        <v>2138.10075256409</v>
+        <v>2178.029846227589</v>
       </c>
       <c r="W26" t="n">
-        <v>2138.10075256409</v>
+        <v>2178.029846227589</v>
       </c>
       <c r="X26" t="n">
-        <v>2138.10075256409</v>
+        <v>1758.887382806899</v>
       </c>
       <c r="Y26" t="n">
-        <v>2138.10075256409</v>
+        <v>1758.887382806899</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>47.79395773028943</v>
       </c>
       <c r="I27" t="n">
-        <v>61.74381980027201</v>
+        <v>82.43638848887582</v>
       </c>
       <c r="J27" t="n">
-        <v>156.8052976309356</v>
+        <v>177.4978663195394</v>
       </c>
       <c r="K27" t="n">
-        <v>319.2805044129579</v>
+        <v>339.9730731015617</v>
       </c>
       <c r="L27" t="n">
-        <v>537.7484706172661</v>
+        <v>558.4410393058699</v>
       </c>
       <c r="M27" t="n">
-        <v>792.6902827094362</v>
+        <v>813.38285139804</v>
       </c>
       <c r="N27" t="n">
         <v>1054.379645964648</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1007.061340023241</v>
+        <v>1029.679353296757</v>
       </c>
       <c r="C28" t="n">
-        <v>834.4996285064657</v>
+        <v>857.1176417799819</v>
       </c>
       <c r="D28" t="n">
-        <v>668.6216357079884</v>
+        <v>691.2396489815046</v>
       </c>
       <c r="E28" t="n">
-        <v>498.8636319587256</v>
+        <v>521.4816452322418</v>
       </c>
       <c r="F28" t="n">
-        <v>322.1565779204818</v>
+        <v>344.774591193998</v>
       </c>
       <c r="G28" t="n">
-        <v>157.4259736634141</v>
+        <v>180.0439869369304</v>
       </c>
       <c r="H28" t="n">
         <v>47.79395773028943</v>
@@ -6390,16 +6390,16 @@
         <v>205.4368764001267</v>
       </c>
       <c r="L28" t="n">
-        <v>498.4082835275835</v>
+        <v>749.0586515341685</v>
       </c>
       <c r="M28" t="n">
-        <v>1089.858510439915</v>
+        <v>1340.5088784465</v>
       </c>
       <c r="N28" t="n">
-        <v>1661.202454910464</v>
+        <v>1911.852822917049</v>
       </c>
       <c r="O28" t="n">
-        <v>2200.102725174268</v>
+        <v>2031.083843955071</v>
       </c>
       <c r="P28" t="n">
         <v>2302.125461467672</v>
@@ -6411,25 +6411,25 @@
         <v>2389.697886514472</v>
       </c>
       <c r="S28" t="n">
-        <v>2245.455661127828</v>
+        <v>2389.697886514472</v>
       </c>
       <c r="T28" t="n">
-        <v>2003.253625952093</v>
+        <v>2244.721856853348</v>
       </c>
       <c r="U28" t="n">
-        <v>2003.253625952093</v>
+        <v>1966.335801781932</v>
       </c>
       <c r="V28" t="n">
-        <v>1716.298117822524</v>
+        <v>1966.335801781932</v>
       </c>
       <c r="W28" t="n">
-        <v>1444.271713408815</v>
+        <v>1694.309397368223</v>
       </c>
       <c r="X28" t="n">
-        <v>1198.879958742228</v>
+        <v>1448.917642701636</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.879958742228</v>
+        <v>1221.497972015744</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>882.6410036141991</v>
+        <v>1923.469222366065</v>
       </c>
       <c r="C29" t="n">
-        <v>444.4985307976224</v>
+        <v>1485.326749549489</v>
       </c>
       <c r="D29" t="n">
-        <v>47.79395773028943</v>
+        <v>1049.416964723933</v>
       </c>
       <c r="E29" t="n">
-        <v>47.79395773028943</v>
+        <v>615.6422198822283</v>
       </c>
       <c r="F29" t="n">
-        <v>47.79395773028943</v>
+        <v>187.7747902914361</v>
       </c>
       <c r="G29" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="H29" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I29" t="n">
-        <v>119.8847973840881</v>
+        <v>119.8847973840878</v>
       </c>
       <c r="J29" t="n">
-        <v>279.4928753818407</v>
+        <v>279.4928753818405</v>
       </c>
       <c r="K29" t="n">
-        <v>518.7040101744782</v>
+        <v>518.704010174478</v>
       </c>
       <c r="L29" t="n">
-        <v>815.4665753802144</v>
+        <v>815.4665753802142</v>
       </c>
       <c r="M29" t="n">
-        <v>1145.672109196299</v>
+        <v>1145.672109196298</v>
       </c>
       <c r="N29" t="n">
         <v>1481.220713768784</v>
@@ -6487,7 +6487,7 @@
         <v>2271.569714617668</v>
       </c>
       <c r="R29" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S29" t="n">
         <v>2349.768792850973</v>
@@ -6496,19 +6496,19 @@
         <v>2349.768792850973</v>
       </c>
       <c r="U29" t="n">
-        <v>2090.69998758597</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="V29" t="n">
-        <v>1728.083037519796</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="W29" t="n">
-        <v>1728.083037519796</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="X29" t="n">
-        <v>1308.940574099107</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.940574099107</v>
+        <v>2349.768792850973</v>
       </c>
     </row>
     <row r="30">
@@ -6533,13 +6533,13 @@
         <v>163.9732570753017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.61477182977811</v>
+        <v>79.61477182977809</v>
       </c>
       <c r="H30" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I30" t="n">
-        <v>82.43638848887582</v>
+        <v>82.43638848887581</v>
       </c>
       <c r="J30" t="n">
         <v>156.8052976309356</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>897.4293240901161</v>
+        <v>743.4576494416665</v>
       </c>
       <c r="C31" t="n">
-        <v>724.867612573341</v>
+        <v>570.8959379248914</v>
       </c>
       <c r="D31" t="n">
-        <v>558.9896197748637</v>
+        <v>405.0179451264141</v>
       </c>
       <c r="E31" t="n">
-        <v>389.2316160256009</v>
+        <v>235.2599413771514</v>
       </c>
       <c r="F31" t="n">
-        <v>212.5245619873571</v>
+        <v>235.2599413771514</v>
       </c>
       <c r="G31" t="n">
-        <v>47.79395773028943</v>
+        <v>180.0439869369304</v>
       </c>
       <c r="H31" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="I31" t="n">
-        <v>47.79395773028943</v>
+        <v>47.79395773028942</v>
       </c>
       <c r="J31" t="n">
-        <v>194.0121591422588</v>
+        <v>107.4324739775689</v>
       </c>
       <c r="K31" t="n">
-        <v>566.7750161359521</v>
+        <v>205.4368764001267</v>
       </c>
       <c r="L31" t="n">
-        <v>1110.396791269994</v>
+        <v>498.4082835275829</v>
       </c>
       <c r="M31" t="n">
-        <v>1242.626048779553</v>
+        <v>1089.858510439914</v>
       </c>
       <c r="N31" t="n">
-        <v>1371.711190092457</v>
+        <v>1661.202454910463</v>
       </c>
       <c r="O31" t="n">
-        <v>1684.403056339594</v>
+        <v>2200.102725174268</v>
       </c>
       <c r="P31" t="n">
-        <v>2133.93268660334</v>
+        <v>2302.125461467672</v>
       </c>
       <c r="Q31" t="n">
-        <v>2372.760715827154</v>
+        <v>2372.760715827153</v>
       </c>
       <c r="R31" t="n">
-        <v>2389.697886514472</v>
+        <v>2389.697886514471</v>
       </c>
       <c r="S31" t="n">
-        <v>2245.455661127828</v>
+        <v>2245.455661127827</v>
       </c>
       <c r="T31" t="n">
-        <v>2003.253625952093</v>
+        <v>2245.455661127827</v>
       </c>
       <c r="U31" t="n">
-        <v>1724.867570880677</v>
+        <v>1967.069606056411</v>
       </c>
       <c r="V31" t="n">
-        <v>1437.912062751108</v>
+        <v>1680.114097926841</v>
       </c>
       <c r="W31" t="n">
-        <v>1316.667613494995</v>
+        <v>1408.087693513133</v>
       </c>
       <c r="X31" t="n">
-        <v>1316.667613494995</v>
+        <v>1162.695938846545</v>
       </c>
       <c r="Y31" t="n">
-        <v>1089.247942809103</v>
+        <v>935.2762681606537</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1099.471304356409</v>
+        <v>1504.326758945376</v>
       </c>
       <c r="C32" t="n">
-        <v>1099.471304356409</v>
+        <v>1066.1842861288</v>
       </c>
       <c r="D32" t="n">
-        <v>1099.471304356409</v>
+        <v>630.2745013032441</v>
       </c>
       <c r="E32" t="n">
-        <v>665.6965595147044</v>
+        <v>196.4997564615392</v>
       </c>
       <c r="F32" t="n">
-        <v>237.8291299239121</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="G32" t="n">
-        <v>47.79395773028942</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="H32" t="n">
-        <v>47.79395773028942</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="I32" t="n">
-        <v>119.8847973840881</v>
+        <v>119.8847973840879</v>
       </c>
       <c r="J32" t="n">
-        <v>279.4928753818408</v>
+        <v>279.4928753818407</v>
       </c>
       <c r="K32" t="n">
-        <v>518.7040101744783</v>
+        <v>518.7040101744782</v>
       </c>
       <c r="L32" t="n">
-        <v>815.4665753802145</v>
+        <v>815.4665753802146</v>
       </c>
       <c r="M32" t="n">
         <v>1145.672109196299</v>
@@ -6715,16 +6715,16 @@
         <v>1481.220713768784</v>
       </c>
       <c r="O32" t="n">
-        <v>1798.069746028391</v>
+        <v>1798.069746028392</v>
       </c>
       <c r="P32" t="n">
         <v>2068.493064500526</v>
       </c>
       <c r="Q32" t="n">
-        <v>2271.569714617668</v>
+        <v>2271.569714617669</v>
       </c>
       <c r="R32" t="n">
-        <v>2389.697886514471</v>
+        <v>2389.697886514472</v>
       </c>
       <c r="S32" t="n">
         <v>2349.768792850973</v>
@@ -6739,13 +6739,13 @@
         <v>2349.768792850973</v>
       </c>
       <c r="W32" t="n">
-        <v>1944.913338262006</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="X32" t="n">
-        <v>1525.770874841317</v>
+        <v>1930.626329430284</v>
       </c>
       <c r="Y32" t="n">
-        <v>1525.770874841317</v>
+        <v>1930.626329430284</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>163.9732570753017</v>
       </c>
       <c r="G33" t="n">
-        <v>79.61477182977809</v>
+        <v>79.61477182977811</v>
       </c>
       <c r="H33" t="n">
-        <v>47.79395773028942</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="I33" t="n">
-        <v>82.43638848887581</v>
+        <v>82.43638848887582</v>
       </c>
       <c r="J33" t="n">
-        <v>177.4978663195394</v>
+        <v>156.8052976309356</v>
       </c>
       <c r="K33" t="n">
-        <v>339.9730731015617</v>
+        <v>319.2805044129579</v>
       </c>
       <c r="L33" t="n">
-        <v>558.4410393058699</v>
+        <v>537.7484706172661</v>
       </c>
       <c r="M33" t="n">
-        <v>813.38285139804</v>
+        <v>792.6902827094362</v>
       </c>
       <c r="N33" t="n">
-        <v>1075.072214653252</v>
+        <v>1054.379645964648</v>
       </c>
       <c r="O33" t="n">
-        <v>1314.466856864849</v>
+        <v>1293.774288176245</v>
       </c>
       <c r="P33" t="n">
-        <v>1506.602162644127</v>
+        <v>1485.909593955523</v>
       </c>
       <c r="Q33" t="n">
         <v>1614.346957624045</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.456586774972</v>
+        <v>622.9142417944886</v>
       </c>
       <c r="C34" t="n">
-        <v>919.8948752581972</v>
+        <v>622.9142417944886</v>
       </c>
       <c r="D34" t="n">
-        <v>754.0168824597199</v>
+        <v>457.0362489960112</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2588787104571</v>
+        <v>287.2782452467485</v>
       </c>
       <c r="F34" t="n">
-        <v>407.5518246722133</v>
+        <v>110.5711912085047</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8212204151457</v>
+        <v>110.5711912085047</v>
       </c>
       <c r="H34" t="n">
         <v>110.5711912085047</v>
       </c>
       <c r="I34" t="n">
-        <v>47.79395773028942</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="J34" t="n">
         <v>107.4324739775689</v>
       </c>
       <c r="K34" t="n">
-        <v>205.4368764001267</v>
+        <v>480.1953309712623</v>
       </c>
       <c r="L34" t="n">
-        <v>749.0586515341683</v>
+        <v>1023.817106105304</v>
       </c>
       <c r="M34" t="n">
-        <v>881.2879090437273</v>
+        <v>1156.046363614863</v>
       </c>
       <c r="N34" t="n">
-        <v>1452.631853514276</v>
+        <v>1285.131504927767</v>
       </c>
       <c r="O34" t="n">
-        <v>1991.53212377808</v>
+        <v>1684.403056339594</v>
       </c>
       <c r="P34" t="n">
-        <v>2302.125461467672</v>
+        <v>2133.93268660334</v>
       </c>
       <c r="Q34" t="n">
-        <v>2372.760715827153</v>
+        <v>2372.760715827154</v>
       </c>
       <c r="R34" t="n">
-        <v>2389.697886514471</v>
+        <v>2389.697886514472</v>
       </c>
       <c r="S34" t="n">
-        <v>2245.455661127827</v>
+        <v>2367.114288656383</v>
       </c>
       <c r="T34" t="n">
-        <v>2003.253625952093</v>
+        <v>2124.912253480649</v>
       </c>
       <c r="U34" t="n">
-        <v>1724.867570880677</v>
+        <v>1846.526198409233</v>
       </c>
       <c r="V34" t="n">
-        <v>1724.867570880677</v>
+        <v>1559.570690279663</v>
       </c>
       <c r="W34" t="n">
-        <v>1452.841166466968</v>
+        <v>1287.544285865955</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.841166466968</v>
+        <v>1042.152531199368</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.275205493959</v>
+        <v>814.7328605134758</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1775.483802497917</v>
+        <v>1578.395332472998</v>
       </c>
       <c r="C35" t="n">
-        <v>1337.34132968134</v>
+        <v>1578.395332472998</v>
       </c>
       <c r="D35" t="n">
-        <v>901.4315448557845</v>
+        <v>1578.395332472998</v>
       </c>
       <c r="E35" t="n">
-        <v>901.4315448557845</v>
+        <v>1144.620587631293</v>
       </c>
       <c r="F35" t="n">
         <v>716.7531580405007</v>
@@ -6937,13 +6937,13 @@
         <v>119.8847973840879</v>
       </c>
       <c r="J35" t="n">
-        <v>279.4928753818409</v>
+        <v>279.4928753818407</v>
       </c>
       <c r="K35" t="n">
-        <v>518.7040101744784</v>
+        <v>518.7040101744782</v>
       </c>
       <c r="L35" t="n">
-        <v>815.4665753802146</v>
+        <v>815.4665753802143</v>
       </c>
       <c r="M35" t="n">
         <v>1145.672109196299</v>
@@ -6970,19 +6970,19 @@
         <v>2138.10075256409</v>
       </c>
       <c r="U35" t="n">
-        <v>2138.10075256409</v>
+        <v>1879.031947299087</v>
       </c>
       <c r="V35" t="n">
-        <v>1775.483802497917</v>
+        <v>1879.031947299087</v>
       </c>
       <c r="W35" t="n">
-        <v>1775.483802497917</v>
+        <v>1879.031947299087</v>
       </c>
       <c r="X35" t="n">
-        <v>1775.483802497917</v>
+        <v>1879.031947299087</v>
       </c>
       <c r="Y35" t="n">
-        <v>1775.483802497917</v>
+        <v>1879.031947299087</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>47.79395773028943</v>
       </c>
       <c r="I36" t="n">
-        <v>61.74381980027201</v>
+        <v>82.43638848887582</v>
       </c>
       <c r="J36" t="n">
         <v>156.8052976309356</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>501.2556142659328</v>
+        <v>788.2111223955023</v>
       </c>
       <c r="C37" t="n">
-        <v>419.5282744533895</v>
+        <v>615.6494108787273</v>
       </c>
       <c r="D37" t="n">
-        <v>419.5282744533895</v>
+        <v>449.77141808025</v>
       </c>
       <c r="E37" t="n">
-        <v>419.5282744533895</v>
+        <v>449.77141808025</v>
       </c>
       <c r="F37" t="n">
-        <v>242.8212204151457</v>
+        <v>344.774591193998</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8212204151457</v>
+        <v>180.0439869369304</v>
       </c>
       <c r="H37" t="n">
-        <v>110.5711912085047</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="I37" t="n">
         <v>47.79395773028943</v>
       </c>
       <c r="J37" t="n">
-        <v>194.0121591422588</v>
+        <v>107.4324739775689</v>
       </c>
       <c r="K37" t="n">
-        <v>566.7750161359521</v>
+        <v>205.4368764001267</v>
       </c>
       <c r="L37" t="n">
-        <v>1110.396791269994</v>
+        <v>330.8487697662073</v>
       </c>
       <c r="M37" t="n">
-        <v>1436.086893988667</v>
+        <v>922.2989966785391</v>
       </c>
       <c r="N37" t="n">
-        <v>1565.172035301571</v>
+        <v>1493.642941149088</v>
       </c>
       <c r="O37" t="n">
-        <v>1684.403056339594</v>
+        <v>2032.543211412892</v>
       </c>
       <c r="P37" t="n">
-        <v>2133.93268660334</v>
+        <v>2302.125461467672</v>
       </c>
       <c r="Q37" t="n">
         <v>2372.760715827154</v>
@@ -7131,16 +7131,16 @@
         <v>1724.867570880677</v>
       </c>
       <c r="V37" t="n">
-        <v>1437.912062751108</v>
+        <v>1724.867570880677</v>
       </c>
       <c r="W37" t="n">
-        <v>1165.885658337399</v>
+        <v>1452.841166466969</v>
       </c>
       <c r="X37" t="n">
-        <v>920.4939036708117</v>
+        <v>1207.449411800381</v>
       </c>
       <c r="Y37" t="n">
-        <v>693.0742329849199</v>
+        <v>980.0297411144895</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1671.55752416528</v>
+        <v>1299.474056175593</v>
       </c>
       <c r="C38" t="n">
-        <v>1233.415051348704</v>
+        <v>1299.474056175593</v>
       </c>
       <c r="D38" t="n">
-        <v>797.5052665231483</v>
+        <v>863.5642713500379</v>
       </c>
       <c r="E38" t="n">
-        <v>797.5052665231483</v>
+        <v>863.5642713500379</v>
       </c>
       <c r="F38" t="n">
-        <v>716.7531580405007</v>
+        <v>447.2730713822789</v>
       </c>
       <c r="G38" t="n">
-        <v>317.2740443885113</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="H38" t="n">
         <v>47.79395773028943</v>
       </c>
       <c r="I38" t="n">
-        <v>119.884797384088</v>
+        <v>119.8847973840879</v>
       </c>
       <c r="J38" t="n">
-        <v>279.4928753818407</v>
+        <v>279.4928753818405</v>
       </c>
       <c r="K38" t="n">
-        <v>518.7040101744782</v>
+        <v>518.7040101744784</v>
       </c>
       <c r="L38" t="n">
-        <v>815.4665753802144</v>
+        <v>815.4665753802146</v>
       </c>
       <c r="M38" t="n">
         <v>1145.672109196299</v>
@@ -7189,37 +7189,37 @@
         <v>1481.220713768784</v>
       </c>
       <c r="O38" t="n">
-        <v>1798.069746028391</v>
+        <v>1798.069746028392</v>
       </c>
       <c r="P38" t="n">
         <v>2068.493064500526</v>
       </c>
       <c r="Q38" t="n">
-        <v>2271.569714617668</v>
+        <v>2271.569714617669</v>
       </c>
       <c r="R38" t="n">
         <v>2389.697886514472</v>
       </c>
       <c r="S38" t="n">
-        <v>2349.768792850973</v>
+        <v>2389.697886514472</v>
       </c>
       <c r="T38" t="n">
-        <v>2349.768792850973</v>
+        <v>2389.697886514472</v>
       </c>
       <c r="U38" t="n">
-        <v>2090.69998758597</v>
+        <v>2130.629081249468</v>
       </c>
       <c r="V38" t="n">
-        <v>2090.69998758597</v>
+        <v>2130.629081249468</v>
       </c>
       <c r="W38" t="n">
-        <v>2090.69998758597</v>
+        <v>1725.773626660501</v>
       </c>
       <c r="X38" t="n">
-        <v>1671.55752416528</v>
+        <v>1725.773626660501</v>
       </c>
       <c r="Y38" t="n">
-        <v>1671.55752416528</v>
+        <v>1725.773626660501</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>177.4978663195394</v>
       </c>
       <c r="K39" t="n">
-        <v>319.2805044129579</v>
+        <v>339.9730731015617</v>
       </c>
       <c r="L39" t="n">
-        <v>537.7484706172661</v>
+        <v>558.4410393058699</v>
       </c>
       <c r="M39" t="n">
-        <v>792.6902827094362</v>
+        <v>813.38285139804</v>
       </c>
       <c r="N39" t="n">
-        <v>1054.379645964648</v>
+        <v>1075.072214653252</v>
       </c>
       <c r="O39" t="n">
-        <v>1293.774288176245</v>
+        <v>1314.466856864849</v>
       </c>
       <c r="P39" t="n">
-        <v>1485.909593955523</v>
+        <v>1506.602162644127</v>
       </c>
       <c r="Q39" t="n">
-        <v>1614.346957624045</v>
+        <v>1635.039526312649</v>
       </c>
       <c r="R39" t="n">
         <v>1676.818072250612</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.2556142659328</v>
+        <v>1066.597177466919</v>
       </c>
       <c r="C40" t="n">
-        <v>328.6939027491578</v>
+        <v>919.8948752581972</v>
       </c>
       <c r="D40" t="n">
-        <v>162.8159099506804</v>
+        <v>754.0168824597199</v>
       </c>
       <c r="E40" t="n">
-        <v>47.79395773028943</v>
+        <v>584.2588787104571</v>
       </c>
       <c r="F40" t="n">
-        <v>47.79395773028943</v>
+        <v>407.5518246722133</v>
       </c>
       <c r="G40" t="n">
-        <v>47.79395773028943</v>
+        <v>242.8212204151457</v>
       </c>
       <c r="H40" t="n">
-        <v>47.79395773028943</v>
+        <v>110.5711912085047</v>
       </c>
       <c r="I40" t="n">
         <v>47.79395773028943</v>
@@ -7338,19 +7338,19 @@
         <v>566.7750161359521</v>
       </c>
       <c r="L40" t="n">
-        <v>1110.396791269994</v>
+        <v>692.1869095020327</v>
       </c>
       <c r="M40" t="n">
-        <v>1436.086893988667</v>
+        <v>1283.637136414364</v>
       </c>
       <c r="N40" t="n">
-        <v>1565.172035301571</v>
+        <v>1412.722277727268</v>
       </c>
       <c r="O40" t="n">
-        <v>1684.403056339594</v>
+        <v>1852.595831203926</v>
       </c>
       <c r="P40" t="n">
-        <v>2133.93268660334</v>
+        <v>2302.125461467672</v>
       </c>
       <c r="Q40" t="n">
         <v>2372.760715827154</v>
@@ -7365,19 +7365,19 @@
         <v>2003.253625952093</v>
       </c>
       <c r="U40" t="n">
-        <v>1724.867570880677</v>
+        <v>2003.253625952093</v>
       </c>
       <c r="V40" t="n">
-        <v>1437.912062751108</v>
+        <v>2003.253625952093</v>
       </c>
       <c r="W40" t="n">
-        <v>1165.885658337399</v>
+        <v>1731.227221538385</v>
       </c>
       <c r="X40" t="n">
-        <v>920.4939036708117</v>
+        <v>1485.835466871798</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.0742329849199</v>
+        <v>1258.415796185906</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1499.818577541896</v>
+        <v>1783.488389804919</v>
       </c>
       <c r="C41" t="n">
-        <v>1061.676104725319</v>
+        <v>1345.345916988342</v>
       </c>
       <c r="D41" t="n">
-        <v>625.7663198997639</v>
+        <v>909.4361321627865</v>
       </c>
       <c r="E41" t="n">
-        <v>625.7663198997639</v>
+        <v>475.6613873210817</v>
       </c>
       <c r="F41" t="n">
-        <v>197.8988903089716</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="G41" t="n">
-        <v>197.8988903089716</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="H41" t="n">
         <v>47.79395773028943</v>
       </c>
       <c r="I41" t="n">
-        <v>119.8847973840881</v>
+        <v>119.8847973840885</v>
       </c>
       <c r="J41" t="n">
-        <v>279.4928753818407</v>
+        <v>279.4928753818411</v>
       </c>
       <c r="K41" t="n">
-        <v>518.7040101744782</v>
+        <v>518.7040101744786</v>
       </c>
       <c r="L41" t="n">
-        <v>815.4665753802144</v>
+        <v>815.4665753802149</v>
       </c>
       <c r="M41" t="n">
         <v>1145.672109196299</v>
@@ -7426,37 +7426,37 @@
         <v>1481.220713768784</v>
       </c>
       <c r="O41" t="n">
-        <v>1798.069746028391</v>
+        <v>1798.069746028392</v>
       </c>
       <c r="P41" t="n">
         <v>2068.493064500526</v>
       </c>
       <c r="Q41" t="n">
-        <v>2271.569714617668</v>
+        <v>2271.569714617669</v>
       </c>
       <c r="R41" t="n">
         <v>2389.697886514472</v>
       </c>
       <c r="S41" t="n">
-        <v>2389.697886514472</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="T41" t="n">
-        <v>2178.029846227589</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="U41" t="n">
-        <v>1918.961040962585</v>
+        <v>2349.768792850973</v>
       </c>
       <c r="V41" t="n">
-        <v>1918.961040962585</v>
+        <v>2188.343844393885</v>
       </c>
       <c r="W41" t="n">
-        <v>1918.961040962585</v>
+        <v>1783.488389804919</v>
       </c>
       <c r="X41" t="n">
-        <v>1499.818577541896</v>
+        <v>1783.488389804919</v>
       </c>
       <c r="Y41" t="n">
-        <v>1499.818577541896</v>
+        <v>1783.488389804919</v>
       </c>
     </row>
     <row r="42">
@@ -7490,10 +7490,10 @@
         <v>82.43638848887582</v>
       </c>
       <c r="J42" t="n">
-        <v>177.4978663195394</v>
+        <v>156.8052976309356</v>
       </c>
       <c r="K42" t="n">
-        <v>339.9730731015617</v>
+        <v>319.2805044129579</v>
       </c>
       <c r="L42" t="n">
         <v>537.7484706172661</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>645.4978396525767</v>
+        <v>1092.456586774972</v>
       </c>
       <c r="C43" t="n">
-        <v>472.9361281358016</v>
+        <v>919.8948752581972</v>
       </c>
       <c r="D43" t="n">
-        <v>307.0581353373243</v>
+        <v>754.0168824597199</v>
       </c>
       <c r="E43" t="n">
-        <v>224.5010117685332</v>
+        <v>584.2588787104571</v>
       </c>
       <c r="F43" t="n">
-        <v>47.79395773028943</v>
+        <v>407.5518246722133</v>
       </c>
       <c r="G43" t="n">
-        <v>47.79395773028943</v>
+        <v>242.8212204151457</v>
       </c>
       <c r="H43" t="n">
-        <v>47.79395773028943</v>
+        <v>110.5711912085047</v>
       </c>
       <c r="I43" t="n">
         <v>47.79395773028943</v>
@@ -7599,22 +7599,22 @@
         <v>2389.697886514472</v>
       </c>
       <c r="T43" t="n">
-        <v>2147.495851338737</v>
+        <v>2307.499090331563</v>
       </c>
       <c r="U43" t="n">
-        <v>1869.109796267321</v>
+        <v>2029.113035260147</v>
       </c>
       <c r="V43" t="n">
-        <v>1582.154288137752</v>
+        <v>2029.113035260147</v>
       </c>
       <c r="W43" t="n">
-        <v>1310.127883724043</v>
+        <v>1757.086630846439</v>
       </c>
       <c r="X43" t="n">
-        <v>1064.736129057456</v>
+        <v>1511.694876179851</v>
       </c>
       <c r="Y43" t="n">
-        <v>837.3164583715638</v>
+        <v>1284.275205493959</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2018.672845273425</v>
+        <v>1783.488389804919</v>
       </c>
       <c r="C44" t="n">
-        <v>1580.530372456848</v>
+        <v>1345.345916988342</v>
       </c>
       <c r="D44" t="n">
-        <v>1144.620587631293</v>
+        <v>909.4361321627865</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.620587631293</v>
+        <v>475.6613873210817</v>
       </c>
       <c r="F44" t="n">
-        <v>716.7531580405007</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="G44" t="n">
-        <v>317.2740443885113</v>
+        <v>47.79395773028943</v>
       </c>
       <c r="H44" t="n">
         <v>47.79395773028943</v>
@@ -7648,28 +7648,28 @@
         <v>119.8847973840879</v>
       </c>
       <c r="J44" t="n">
-        <v>279.4928753818405</v>
+        <v>279.4928753818407</v>
       </c>
       <c r="K44" t="n">
-        <v>518.704010174478</v>
+        <v>518.7040101744782</v>
       </c>
       <c r="L44" t="n">
-        <v>815.4665753802142</v>
+        <v>815.4665753802146</v>
       </c>
       <c r="M44" t="n">
-        <v>1145.672109196298</v>
+        <v>1145.672109196299</v>
       </c>
       <c r="N44" t="n">
         <v>1481.220713768784</v>
       </c>
       <c r="O44" t="n">
-        <v>1798.069746028391</v>
+        <v>1798.069746028392</v>
       </c>
       <c r="P44" t="n">
         <v>2068.493064500526</v>
       </c>
       <c r="Q44" t="n">
-        <v>2271.569714617668</v>
+        <v>2271.569714617669</v>
       </c>
       <c r="R44" t="n">
         <v>2389.697886514472</v>
@@ -7681,19 +7681,19 @@
         <v>2138.10075256409</v>
       </c>
       <c r="U44" t="n">
-        <v>2138.10075256409</v>
+        <v>1879.031947299087</v>
       </c>
       <c r="V44" t="n">
-        <v>2138.10075256409</v>
+        <v>1879.031947299087</v>
       </c>
       <c r="W44" t="n">
-        <v>2138.10075256409</v>
+        <v>1879.031947299087</v>
       </c>
       <c r="X44" t="n">
-        <v>2138.10075256409</v>
+        <v>1879.031947299087</v>
       </c>
       <c r="Y44" t="n">
-        <v>2138.10075256409</v>
+        <v>1783.488389804919</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>47.79395773028943</v>
       </c>
       <c r="I45" t="n">
-        <v>61.74381980027201</v>
+        <v>82.43638848887582</v>
       </c>
       <c r="J45" t="n">
         <v>156.8052976309356</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>645.4978396525767</v>
+        <v>923.8838947239929</v>
       </c>
       <c r="C46" t="n">
-        <v>472.9361281358016</v>
+        <v>751.3221832072178</v>
       </c>
       <c r="D46" t="n">
-        <v>389.2316160256009</v>
+        <v>585.4441904087405</v>
       </c>
       <c r="E46" t="n">
-        <v>389.2316160256009</v>
+        <v>415.6861866594778</v>
       </c>
       <c r="F46" t="n">
-        <v>212.5245619873571</v>
+        <v>238.979132621234</v>
       </c>
       <c r="G46" t="n">
-        <v>47.79395773028943</v>
+        <v>74.24852836416625</v>
       </c>
       <c r="H46" t="n">
         <v>47.79395773028943</v>
@@ -7812,7 +7812,7 @@
         <v>205.4368764001267</v>
       </c>
       <c r="L46" t="n">
-        <v>498.4082835275835</v>
+        <v>498.4082835275833</v>
       </c>
       <c r="M46" t="n">
         <v>1089.858510439915</v>
@@ -7839,19 +7839,19 @@
         <v>2147.495851338737</v>
       </c>
       <c r="U46" t="n">
-        <v>1869.109796267321</v>
+        <v>2147.495851338737</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.154288137752</v>
+        <v>1860.540343209168</v>
       </c>
       <c r="W46" t="n">
-        <v>1310.127883724043</v>
+        <v>1588.513938795459</v>
       </c>
       <c r="X46" t="n">
-        <v>1064.736129057456</v>
+        <v>1343.122184128872</v>
       </c>
       <c r="Y46" t="n">
-        <v>837.3164583715638</v>
+        <v>1115.70251344298</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>177.19208494646</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>45.75904403825007</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9798,22 +9798,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>169.2520341023996</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>463.8595650533057</v>
       </c>
       <c r="N25" t="n">
-        <v>28.85258183066162</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10038,19 +10038,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>169.2520341024002</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>463.8595650533058</v>
+        <v>463.8595650533057</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>170.726142645653</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>169.2520341023996</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>463.8595650533057</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>195.4149951607214</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,16 +10518,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>282.869222599802</v>
       </c>
       <c r="P34" t="n">
-        <v>210.677375147664</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>195.4149951607212</v>
+        <v>463.8595650533058</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>169.2520341024001</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,22 +10986,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>195.4149951607212</v>
+        <v>463.8595650533058</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>323.881345897611</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>169.2520341024002</v>
+        <v>169.2520341023999</v>
       </c>
       <c r="M46" t="n">
         <v>463.8595650533058</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.77402585779841</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>30.49849916615064</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>28.28813805503963</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>26.17444847102748</v>
       </c>
       <c r="F2" t="n">
-        <v>21.52200224723448</v>
+        <v>20.71510220415747</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>11.68848986422212</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9407135410828178</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>175.1982088435583</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>182.8461170869178</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23323,10 +23323,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>101.4231659571925</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>69.52134278359651</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>57.92552441760097</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>230.0465637351933</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>51.2176754760204</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>178.0074579523983</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,16 +23740,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>375.0829218623502</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>196.3381150653135</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735097</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23791,7 +23791,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>136.3926684020041</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>10.2844488150854</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.02591938881801</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>294.1932910344035</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>6.477749839443788</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>14.91368936879164</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>292.389891861848</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>209.551359884014</v>
       </c>
       <c r="U23" t="n">
-        <v>193.700776488342</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>85.19295672267147</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H25" t="n">
-        <v>130.9275289145745</v>
+        <v>3.803666915973025</v>
       </c>
       <c r="I25" t="n">
-        <v>62.14946114343314</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6021945207021</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>12.63052361968676</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>309.6511886607036</v>
+        <v>395.4843225154696</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.7852857916396</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>39.5298027268632</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>22.39183314078109</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.14946114343314</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.7998031327776</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>96.2537454594646</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6021945207021</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>38.81315964064027</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4843225154696</v>
+        <v>256.9032982799343</v>
       </c>
       <c r="H29" t="n">
         <v>266.7852857916396</v>
@@ -24736,16 +24736,16 @@
         <v>209.551359884014</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>108.4195033186782</v>
       </c>
       <c r="H31" t="n">
-        <v>130.9275289145745</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.14946114343314</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.7800148239768</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>149.2741356060199</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>276.3700145509471</v>
       </c>
       <c r="G32" t="n">
-        <v>207.3495020437831</v>
+        <v>395.4843225154696</v>
       </c>
       <c r="H32" t="n">
         <v>266.7852857916396</v>
@@ -24979,7 +24979,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.083298214497</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.9275289145745</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>120.4420412532704</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>58.26517261575395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>124.4063261022305</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>240.7571523477533</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>89.92602798718941</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>70.99312488047192</v>
       </c>
       <c r="G37" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.14946114343314</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>343.6441678970632</v>
+        <v>11.46046732680293</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.7852857916396</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>39.5298027268632</v>
       </c>
       <c r="T38" t="n">
         <v>209.551359884014</v>
@@ -25453,10 +25453,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>25.60081521497321</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>54.18869101358302</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9275289145745</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.14946114343314</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6021945207021</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>395.4843225154696</v>
       </c>
       <c r="H41" t="n">
-        <v>118.1814025387443</v>
+        <v>266.7852857916396</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.5298027268632</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.551359884014</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4781172123533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>199.1800815929948</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>86.32887137866696</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.083298214497</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9275289145745</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.14946114343314</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>142.7998031327776</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>158.4032066028977</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>303.8029465623001</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4843225154696</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.7852857916396</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4781172123533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>309.6151405441166</v>
       </c>
     </row>
     <row r="45">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>81.35174588139388</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.9275289145745</v>
+        <v>104.7375039870365</v>
       </c>
       <c r="I46" t="n">
         <v>62.14946114343314</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6021945207021</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358689.9968737363</v>
+        <v>358689.9968737361</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358689.9968737363</v>
+        <v>358689.9968737361</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>358689.9968737361</v>
+        <v>358689.9968737362</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>362208.5127985338</v>
+        <v>362208.5127985337</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>362208.5127985337</v>
+        <v>362208.5127985338</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362208.5127985337</v>
+        <v>362208.5127985338</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362208.5127985337</v>
+        <v>362208.5127985338</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>353964.9188419533</v>
+        <v>353964.9188419532</v>
       </c>
       <c r="C2" t="n">
         <v>361899.4409260256</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260257</v>
+        <v>361899.4409260256</v>
       </c>
       <c r="E2" t="n">
         <v>212351.7212561034</v>
       </c>
       <c r="F2" t="n">
+        <v>212351.7212561034</v>
+      </c>
+      <c r="G2" t="n">
+        <v>212351.7212561034</v>
+      </c>
+      <c r="H2" t="n">
         <v>212351.7212561035</v>
-      </c>
-      <c r="G2" t="n">
-        <v>212351.7212561035</v>
-      </c>
-      <c r="H2" t="n">
-        <v>212351.7212561034</v>
       </c>
       <c r="I2" t="n">
         <v>214403.1183171196</v>
@@ -26340,10 +26340,10 @@
         <v>214403.1183171196</v>
       </c>
       <c r="K2" t="n">
+        <v>214403.1183171196</v>
+      </c>
+      <c r="L2" t="n">
         <v>214403.1183171197</v>
-      </c>
-      <c r="L2" t="n">
-        <v>214403.1183171196</v>
       </c>
       <c r="M2" t="n">
         <v>214403.1183171197</v>
@@ -26355,7 +26355,7 @@
         <v>214403.1183171196</v>
       </c>
       <c r="P2" t="n">
-        <v>214403.1183171197</v>
+        <v>214403.1183171196</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3658.813870389771</v>
+        <v>3658.81387038976</v>
       </c>
       <c r="C3" t="n">
         <v>39694.34694747527</v>
@@ -26392,7 +26392,7 @@
         <v>853.6263502158678</v>
       </c>
       <c r="K3" t="n">
-        <v>9793.484013311734</v>
+        <v>9793.484013311732</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>294841.7084545743</v>
       </c>
       <c r="E4" t="n">
-        <v>20967.98795247263</v>
+        <v>20967.98795247262</v>
       </c>
       <c r="F4" t="n">
         <v>20967.98795247263</v>
@@ -26441,7 +26441,7 @@
         <v>21223.95514623544</v>
       </c>
       <c r="J4" t="n">
-        <v>21223.95514623545</v>
+        <v>21223.95514623544</v>
       </c>
       <c r="K4" t="n">
         <v>21223.95514623544</v>
@@ -26459,7 +26459,7 @@
         <v>21223.95514623544</v>
       </c>
       <c r="P4" t="n">
-        <v>21223.95514623545</v>
+        <v>21223.95514623544</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46624.08715147128</v>
+        <v>46624.08715147127</v>
       </c>
       <c r="J5" t="n">
         <v>46624.08715147128</v>
       </c>
       <c r="K5" t="n">
+        <v>46624.08715147127</v>
+      </c>
+      <c r="L5" t="n">
         <v>46624.08715147128</v>
-      </c>
-      <c r="L5" t="n">
-        <v>46624.08715147127</v>
       </c>
       <c r="M5" t="n">
         <v>46624.08715147128</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18024.77258311272</v>
+        <v>17995.3854642827</v>
       </c>
       <c r="C6" t="n">
         <v>-9490.184286234064</v>
       </c>
       <c r="D6" t="n">
-        <v>30204.16266124127</v>
+        <v>30204.16266124121</v>
       </c>
       <c r="E6" t="n">
-        <v>-367152.8574619887</v>
+        <v>-367706.7379052108</v>
       </c>
       <c r="F6" t="n">
-        <v>145332.652093993</v>
+        <v>144778.771650771</v>
       </c>
       <c r="G6" t="n">
-        <v>145332.652093993</v>
+        <v>144778.771650771</v>
       </c>
       <c r="H6" t="n">
-        <v>145332.652093993</v>
+        <v>144778.771650771</v>
       </c>
       <c r="I6" t="n">
-        <v>140231.8473255778</v>
+        <v>139685.5646492485</v>
       </c>
       <c r="J6" t="n">
-        <v>145701.449669197</v>
+        <v>145155.1669928677</v>
       </c>
       <c r="K6" t="n">
-        <v>136761.5920061012</v>
+        <v>136215.3093297719</v>
       </c>
       <c r="L6" t="n">
-        <v>146555.0760194129</v>
+        <v>146008.7933430837</v>
       </c>
       <c r="M6" t="n">
-        <v>9800.171636297528</v>
+        <v>9253.888959968246</v>
       </c>
       <c r="N6" t="n">
-        <v>146555.076019413</v>
+        <v>146008.7933430837</v>
       </c>
       <c r="O6" t="n">
-        <v>146555.0760194129</v>
+        <v>146008.7933430836</v>
       </c>
       <c r="P6" t="n">
-        <v>146555.076019413</v>
+        <v>146008.7933430836</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
@@ -26746,13 +26746,13 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932213</v>
@@ -26792,34 +26792,34 @@
         <v>3.262548922260276</v>
       </c>
       <c r="C4" t="n">
+        <v>41.31500304752733</v>
+      </c>
+      <c r="D4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D4" t="n">
-        <v>41.31500304752733</v>
-      </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>597.4244716286179</v>
+        <v>597.4244716286178</v>
       </c>
       <c r="J4" t="n">
         <v>597.4244716286179</v>
       </c>
       <c r="K4" t="n">
+        <v>597.4244716286178</v>
+      </c>
+      <c r="L4" t="n">
         <v>597.4244716286179</v>
-      </c>
-      <c r="L4" t="n">
-        <v>597.4244716286178</v>
       </c>
       <c r="M4" t="n">
         <v>597.4244716286179</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="C3" t="n">
         <v>30.09076906183131</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9488260326494</v>
+        <v>433.9488260326495</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>3.262548922260276</v>
       </c>
       <c r="C4" t="n">
-        <v>38.05245412526707</v>
+        <v>38.05245412526706</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>3.262548922260276</v>
       </c>
       <c r="K4" t="n">
-        <v>38.05245412526707</v>
+        <v>38.05245412526706</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>3.262548922260276</v>
       </c>
       <c r="K4" t="n">
-        <v>38.05245412526707</v>
+        <v>38.05245412526706</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27472,10 +27472,10 @@
         <v>79.87277290152548</v>
       </c>
       <c r="G3" t="n">
-        <v>84.52551230889576</v>
+        <v>81.26296338663548</v>
       </c>
       <c r="H3" t="n">
-        <v>41.26298946135317</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.45196651563608</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T3" t="n">
         <v>128.8537753079323</v>
       </c>
       <c r="U3" t="n">
-        <v>171.3102558625354</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V3" t="n">
         <v>197.1263427586206</v>
@@ -27539,7 +27539,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>169.4338908979048</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27548,10 +27548,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>173.5377799941589</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>160.668012373812</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H4" t="n">
         <v>138.4604679489429</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.98777588476758</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S4" t="n">
         <v>157.5652879271376</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>30.93157046990759</v>
+        <v>20.19730100379492</v>
       </c>
       <c r="T6" t="n">
-        <v>87.27789097014248</v>
+        <v>87.27789097014247</v>
       </c>
       <c r="U6" t="n">
-        <v>133.2535436095709</v>
+        <v>143.9878130756836</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
@@ -27785,10 +27785,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>158.8673072554019</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H7" t="n">
         <v>137.9780290613614</v>
@@ -27833,10 +27833,10 @@
         <v>275.6454491228296</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>268.0132768058143</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C9" t="n">
-        <v>64.07689350419679</v>
+        <v>74.81116297030945</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878848</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
@@ -27988,7 +27988,7 @@
         <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>143.9878130756836</v>
+        <v>174.5685466570983</v>
       </c>
       <c r="V9" t="n">
         <v>197.1263427586206</v>
@@ -28000,7 +28000,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>83.90591838104407</v>
       </c>
     </row>
     <row r="10">
@@ -28022,16 +28022,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>136.1002613421533</v>
       </c>
       <c r="G10" t="n">
         <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>121.9053528189019</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>44.68216206888226</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
@@ -31047,10 +31047,10 @@
         <v>0.1096105239129608</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313975</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817443</v>
       </c>
       <c r="K2" t="n">
         <v>1.361442175632203</v>
@@ -31059,10 +31059,10 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M2" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N2" t="n">
-        <v>1.909735609237095</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O2" t="n">
         <v>1.803309182076396</v>
@@ -31074,16 +31074,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497281</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471608</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.0057265275821961</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05530620059647288</v>
+        <v>0.05530620059647287</v>
       </c>
       <c r="I3" t="n">
         <v>0.19716334000105</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5410312747723081</v>
+        <v>0.5410312747723079</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L3" t="n">
         <v>1.243384859458851</v>
@@ -31150,19 +31150,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975232</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3555470370770528</v>
+        <v>0.3555470370770527</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T3" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636077</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3394256349377582</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819465</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.7346729732425469</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559683</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449316</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R4" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.08366708784565799</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02051305753127766</v>
+        <v>0.02051305753127765</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31992,13 +31992,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -32007,10 +32007,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916725</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917233</v>
@@ -32101,16 +32101,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,34 +32226,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.87618865565114</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548412</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184537</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065039</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112869</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879939</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742727</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917233</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233627</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356909</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238417</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051979</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116995</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207642</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130051</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32566,10 +32566,10 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742727</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917227</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -32791,7 +32791,7 @@
         <v>96.02169477844811</v>
       </c>
       <c r="K24" t="n">
-        <v>143.214785952948</v>
+        <v>164.1163704868912</v>
       </c>
       <c r="L24" t="n">
         <v>220.674713337685</v>
@@ -32800,7 +32800,7 @@
         <v>257.5169819112829</v>
       </c>
       <c r="N24" t="n">
-        <v>264.3326901567798</v>
+        <v>243.4311056228366</v>
       </c>
       <c r="O24" t="n">
         <v>241.8127699107039</v>
@@ -33022,7 +33022,7 @@
         <v>9.815689703455861</v>
       </c>
       <c r="I27" t="n">
-        <v>14.09076976765916</v>
+        <v>34.99235430160241</v>
       </c>
       <c r="J27" t="n">
         <v>96.02169477844811</v>
@@ -33037,7 +33037,7 @@
         <v>257.5169819112829</v>
       </c>
       <c r="N27" t="n">
-        <v>264.3326901567798</v>
+        <v>243.4311056228366</v>
       </c>
       <c r="O27" t="n">
         <v>241.8127699107039</v>
@@ -33262,7 +33262,7 @@
         <v>34.99235430160241</v>
       </c>
       <c r="J30" t="n">
-        <v>75.12011024450486</v>
+        <v>75.12011024450487</v>
       </c>
       <c r="K30" t="n">
         <v>164.1163704868912</v>
@@ -33499,7 +33499,7 @@
         <v>34.99235430160241</v>
       </c>
       <c r="J33" t="n">
-        <v>96.02169477844811</v>
+        <v>75.12011024450486</v>
       </c>
       <c r="K33" t="n">
         <v>164.1163704868912</v>
@@ -33520,7 +33520,7 @@
         <v>194.0760664437154</v>
       </c>
       <c r="Q33" t="n">
-        <v>108.8331262423417</v>
+        <v>129.7347107762849</v>
       </c>
       <c r="R33" t="n">
         <v>63.10213598643107</v>
@@ -33733,10 +33733,10 @@
         <v>9.815689703455861</v>
       </c>
       <c r="I36" t="n">
-        <v>14.09076976765916</v>
+        <v>34.99235430160241</v>
       </c>
       <c r="J36" t="n">
-        <v>96.02169477844811</v>
+        <v>75.12011024450486</v>
       </c>
       <c r="K36" t="n">
         <v>164.1163704868912</v>
@@ -33976,7 +33976,7 @@
         <v>96.02169477844811</v>
       </c>
       <c r="K39" t="n">
-        <v>143.214785952948</v>
+        <v>164.1163704868912</v>
       </c>
       <c r="L39" t="n">
         <v>220.674713337685</v>
@@ -33997,7 +33997,7 @@
         <v>129.7347107762849</v>
       </c>
       <c r="R39" t="n">
-        <v>63.10213598643107</v>
+        <v>42.20055145248784</v>
       </c>
       <c r="S39" t="n">
         <v>18.8780408238581</v>
@@ -34210,13 +34210,13 @@
         <v>34.99235430160241</v>
       </c>
       <c r="J42" t="n">
-        <v>96.02169477844811</v>
+        <v>75.12011024450486</v>
       </c>
       <c r="K42" t="n">
         <v>164.1163704868912</v>
       </c>
       <c r="L42" t="n">
-        <v>199.7731288037418</v>
+        <v>220.674713337685</v>
       </c>
       <c r="M42" t="n">
         <v>257.5169819112829</v>
@@ -34444,10 +34444,10 @@
         <v>9.815689703455861</v>
       </c>
       <c r="I45" t="n">
-        <v>14.09076976765916</v>
+        <v>34.99235430160241</v>
       </c>
       <c r="J45" t="n">
-        <v>96.02169477844811</v>
+        <v>75.12011024450486</v>
       </c>
       <c r="K45" t="n">
         <v>164.1163704868912</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817464</v>
       </c>
       <c r="K2" t="n">
         <v>1.361442175632203</v>
@@ -34713,16 +34713,16 @@
         <v>1.909735609237094</v>
       </c>
       <c r="O2" t="n">
-        <v>1.803309182076397</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P2" t="n">
         <v>1.539082665869758</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.155786985397853</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6723126642497252</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0.19716334000105</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5410312747723081</v>
+        <v>0.5410312747723078</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L3" t="n">
         <v>1.243384859458851</v>
@@ -34792,10 +34792,10 @@
         <v>1.489374382002836</v>
       </c>
       <c r="O3" t="n">
-        <v>1.362486586628912</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P3" t="n">
-        <v>1.09351560470901</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q3" t="n">
         <v>0.7309862225975223</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3394256349377583</v>
+        <v>0.3394256349377578</v>
       </c>
       <c r="K4" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377207</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819462</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7525673425783421</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7346729732425472</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6785894010559681</v>
+        <v>0.6785894010559677</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5806504625449316</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4020122828097845</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>4.663615574899505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.17539134075754</v>
+        <v>11.17539134075756</v>
       </c>
       <c r="K5" t="n">
         <v>16.74901469844195</v>
       </c>
       <c r="L5" t="n">
-        <v>20.77863378260766</v>
+        <v>20.77863378260764</v>
       </c>
       <c r="M5" t="n">
         <v>23.12023369725966</v>
@@ -34950,7 +34950,7 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978145</v>
+        <v>22.18504210978143</v>
       </c>
       <c r="P5" t="n">
         <v>18.93442017160913</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.425583501655538</v>
+        <v>2.425583501655539</v>
       </c>
       <c r="J6" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
         <v>11.37614111852891</v>
@@ -35096,7 +35096,7 @@
         <v>4.175752044673201</v>
       </c>
       <c r="K7" t="n">
-        <v>6.862043349739427</v>
+        <v>6.862043349739428</v>
       </c>
       <c r="L7" t="n">
         <v>8.781052968829309</v>
@@ -35175,22 +35175,22 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
-        <v>20.77863378260764</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M8" t="n">
-        <v>23.12023369725968</v>
+        <v>23.12023369725966</v>
       </c>
       <c r="N8" t="n">
         <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P8" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
         <v>14.21896100560221</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655539</v>
+        <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460122</v>
+        <v>6.655986523460121</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35333,7 +35333,7 @@
         <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739428</v>
+        <v>6.862043349739427</v>
       </c>
       <c r="L10" t="n">
         <v>8.781052968829309</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
@@ -35421,7 +35421,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548409</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916725</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572666</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35901,13 +35901,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742727</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562342</v>
@@ -36214,10 +36214,10 @@
         <v>261.0845059811315</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742727</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917227</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36284,22 +36284,22 @@
         <v>375.3116718572665</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366647</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>164.7144797430601</v>
+        <v>296.1475206512698</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027016</v>
@@ -36357,7 +36357,7 @@
         <v>72.81902995333174</v>
       </c>
       <c r="J23" t="n">
-        <v>161.2202808058107</v>
+        <v>161.2202808058108</v>
       </c>
       <c r="K23" t="n">
         <v>241.6274088814521</v>
@@ -36366,10 +36366,10 @@
         <v>299.760166874481</v>
       </c>
       <c r="M23" t="n">
-        <v>333.5409432485699</v>
+        <v>333.5409432485698</v>
       </c>
       <c r="N23" t="n">
-        <v>338.9379844166522</v>
+        <v>338.9379844166519</v>
       </c>
       <c r="O23" t="n">
         <v>320.0495275349567</v>
@@ -36378,7 +36378,7 @@
         <v>273.1548671435703</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.1279294112551</v>
+        <v>205.1279294112546</v>
       </c>
       <c r="R23" t="n">
         <v>119.3213857543469</v>
@@ -36436,19 +36436,19 @@
         <v>34.99235430160241</v>
       </c>
       <c r="J24" t="n">
-        <v>96.02169477844809</v>
+        <v>96.02169477844811</v>
       </c>
       <c r="K24" t="n">
-        <v>143.214785952948</v>
+        <v>164.1163704868912</v>
       </c>
       <c r="L24" t="n">
         <v>220.674713337685</v>
       </c>
       <c r="M24" t="n">
-        <v>257.516981911283</v>
+        <v>257.5169819112829</v>
       </c>
       <c r="N24" t="n">
-        <v>264.3326901567798</v>
+        <v>243.4311056228366</v>
       </c>
       <c r="O24" t="n">
         <v>241.812769910704</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>60.24092550230252</v>
+        <v>60.24092550230251</v>
       </c>
       <c r="K25" t="n">
-        <v>376.5281383774681</v>
+        <v>98.99434588137149</v>
       </c>
       <c r="L25" t="n">
-        <v>549.1129041757995</v>
+        <v>295.9307142701579</v>
       </c>
       <c r="M25" t="n">
-        <v>133.5649065753121</v>
+        <v>597.4244716286178</v>
       </c>
       <c r="N25" t="n">
-        <v>159.2416134598579</v>
+        <v>577.1150954247969</v>
       </c>
       <c r="O25" t="n">
-        <v>544.3437073371756</v>
+        <v>544.3437073371758</v>
       </c>
       <c r="P25" t="n">
-        <v>454.0703335997437</v>
+        <v>103.0532689832366</v>
       </c>
       <c r="Q25" t="n">
         <v>71.34874177725442</v>
@@ -36618,7 +36618,7 @@
         <v>205.1279294112551</v>
       </c>
       <c r="R26" t="n">
-        <v>119.3213857543469</v>
+        <v>119.3213857543465</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.09076976765916</v>
+        <v>34.99235430160241</v>
       </c>
       <c r="J27" t="n">
-        <v>96.02169477844811</v>
+        <v>96.02169477844809</v>
       </c>
       <c r="K27" t="n">
         <v>164.1163704868912</v>
@@ -36682,10 +36682,10 @@
         <v>220.674713337685</v>
       </c>
       <c r="M27" t="n">
-        <v>257.516981911283</v>
+        <v>257.5169819112829</v>
       </c>
       <c r="N27" t="n">
-        <v>264.3326901567798</v>
+        <v>243.4311056228366</v>
       </c>
       <c r="O27" t="n">
         <v>241.812769910704</v>
@@ -36758,19 +36758,19 @@
         <v>98.99434588137149</v>
       </c>
       <c r="L28" t="n">
-        <v>295.9307142701584</v>
+        <v>549.1129041757997</v>
       </c>
       <c r="M28" t="n">
-        <v>597.4244716286179</v>
+        <v>597.4244716286178</v>
       </c>
       <c r="N28" t="n">
         <v>577.1150954247969</v>
       </c>
       <c r="O28" t="n">
-        <v>544.3437073371756</v>
+        <v>120.4353747858813</v>
       </c>
       <c r="P28" t="n">
-        <v>103.0532689832366</v>
+        <v>273.7794116288896</v>
       </c>
       <c r="Q28" t="n">
         <v>71.34874177725442</v>
@@ -36843,7 +36843,7 @@
         <v>333.5409432485699</v>
       </c>
       <c r="N29" t="n">
-        <v>338.9379844166519</v>
+        <v>338.9379844166522</v>
       </c>
       <c r="O29" t="n">
         <v>320.0495275349567</v>
@@ -36852,7 +36852,7 @@
         <v>273.1548671435703</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.1279294112551</v>
+        <v>205.1279294112546</v>
       </c>
       <c r="R29" t="n">
         <v>119.3213857543469</v>
@@ -36910,7 +36910,7 @@
         <v>34.99235430160241</v>
       </c>
       <c r="J30" t="n">
-        <v>75.12011024450486</v>
+        <v>75.12011024450487</v>
       </c>
       <c r="K30" t="n">
         <v>164.1163704868912</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>147.6951529413832</v>
+        <v>60.24092550230251</v>
       </c>
       <c r="K31" t="n">
-        <v>376.528138377468</v>
+        <v>98.99434588137149</v>
       </c>
       <c r="L31" t="n">
-        <v>549.1129041757997</v>
+        <v>295.9307142701579</v>
       </c>
       <c r="M31" t="n">
-        <v>133.5649065753121</v>
+        <v>597.4244716286178</v>
       </c>
       <c r="N31" t="n">
-        <v>130.3890316291961</v>
+        <v>577.1150954247969</v>
       </c>
       <c r="O31" t="n">
-        <v>315.8503699466028</v>
+        <v>544.3437073371758</v>
       </c>
       <c r="P31" t="n">
-        <v>454.0703335997437</v>
+        <v>103.0532689832366</v>
       </c>
       <c r="Q31" t="n">
-        <v>241.2404335594083</v>
+        <v>71.34874177725442</v>
       </c>
       <c r="R31" t="n">
         <v>17.10825321951248</v>
@@ -37068,19 +37068,19 @@
         <v>72.81902995333174</v>
       </c>
       <c r="J32" t="n">
-        <v>161.2202808058108</v>
+        <v>161.2202808058109</v>
       </c>
       <c r="K32" t="n">
         <v>241.6274088814521</v>
       </c>
       <c r="L32" t="n">
-        <v>299.760166874481</v>
+        <v>299.7601668744812</v>
       </c>
       <c r="M32" t="n">
-        <v>333.5409432485698</v>
+        <v>333.5409432485699</v>
       </c>
       <c r="N32" t="n">
-        <v>338.9379844166519</v>
+        <v>338.9379844166522</v>
       </c>
       <c r="O32" t="n">
         <v>320.0495275349567</v>
@@ -37089,10 +37089,10 @@
         <v>273.1548671435703</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.1279294112546</v>
+        <v>205.1279294112551</v>
       </c>
       <c r="R32" t="n">
-        <v>119.3213857543469</v>
+        <v>119.3213857543465</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>34.99235430160241</v>
       </c>
       <c r="J33" t="n">
-        <v>96.02169477844811</v>
+        <v>75.12011024450486</v>
       </c>
       <c r="K33" t="n">
         <v>164.1163704868912</v>
@@ -37156,7 +37156,7 @@
         <v>220.674713337685</v>
       </c>
       <c r="M33" t="n">
-        <v>257.5169819112829</v>
+        <v>257.516981911283</v>
       </c>
       <c r="N33" t="n">
         <v>264.3326901567798</v>
@@ -37168,7 +37168,7 @@
         <v>194.0760664437155</v>
       </c>
       <c r="Q33" t="n">
-        <v>108.8331262423417</v>
+        <v>129.7347107762848</v>
       </c>
       <c r="R33" t="n">
         <v>63.10213598643099</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.24092550230251</v>
+        <v>60.24092550230252</v>
       </c>
       <c r="K34" t="n">
-        <v>98.99434588137149</v>
+        <v>376.5281383774681</v>
       </c>
       <c r="L34" t="n">
         <v>549.1129041757997</v>
@@ -37238,16 +37238,16 @@
         <v>133.5649065753121</v>
       </c>
       <c r="N34" t="n">
-        <v>577.115095424797</v>
+        <v>130.3890316291961</v>
       </c>
       <c r="O34" t="n">
-        <v>544.3437073371756</v>
+        <v>403.3045973856833</v>
       </c>
       <c r="P34" t="n">
-        <v>313.7306441309006</v>
+        <v>454.0703335997437</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.34874177725442</v>
+        <v>241.2404335594083</v>
       </c>
       <c r="R34" t="n">
         <v>17.10825321951248</v>
@@ -37305,22 +37305,22 @@
         <v>72.81902995333174</v>
       </c>
       <c r="J35" t="n">
-        <v>161.2202808058112</v>
+        <v>161.2202808058109</v>
       </c>
       <c r="K35" t="n">
         <v>241.6274088814521</v>
       </c>
       <c r="L35" t="n">
-        <v>299.760166874481</v>
+        <v>299.7601668744809</v>
       </c>
       <c r="M35" t="n">
-        <v>333.5409432485699</v>
+        <v>333.54094324857</v>
       </c>
       <c r="N35" t="n">
         <v>338.9379844166519</v>
       </c>
       <c r="O35" t="n">
-        <v>320.0495275349567</v>
+        <v>320.049527534957</v>
       </c>
       <c r="P35" t="n">
         <v>273.1548671435701</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.09076976765916</v>
+        <v>34.99235430160241</v>
       </c>
       <c r="J36" t="n">
-        <v>96.02169477844811</v>
+        <v>75.12011024450486</v>
       </c>
       <c r="K36" t="n">
         <v>164.1163704868912</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>147.6951529413832</v>
+        <v>60.24092550230252</v>
       </c>
       <c r="K37" t="n">
-        <v>376.5281383774681</v>
+        <v>98.99434588137149</v>
       </c>
       <c r="L37" t="n">
-        <v>549.1129041757997</v>
+        <v>126.6786801677582</v>
       </c>
       <c r="M37" t="n">
-        <v>328.9799017360333</v>
+        <v>597.424471628618</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3890316291963</v>
+        <v>577.1150954247969</v>
       </c>
       <c r="O37" t="n">
-        <v>120.4353747858813</v>
+        <v>544.3437073371756</v>
       </c>
       <c r="P37" t="n">
-        <v>454.0703335997437</v>
+        <v>272.3053030856368</v>
       </c>
       <c r="Q37" t="n">
-        <v>241.2404335594083</v>
+        <v>71.34874177725442</v>
       </c>
       <c r="R37" t="n">
         <v>17.10825321951248</v>
@@ -37542,10 +37542,10 @@
         <v>72.81902995333174</v>
       </c>
       <c r="J38" t="n">
-        <v>161.2202808058108</v>
+        <v>161.2202808058107</v>
       </c>
       <c r="K38" t="n">
-        <v>241.6274088814521</v>
+        <v>241.6274088814525</v>
       </c>
       <c r="L38" t="n">
         <v>299.760166874481</v>
@@ -37554,7 +37554,7 @@
         <v>333.5409432485699</v>
       </c>
       <c r="N38" t="n">
-        <v>338.9379844166519</v>
+        <v>338.9379844166522</v>
       </c>
       <c r="O38" t="n">
         <v>320.0495275349567</v>
@@ -37566,7 +37566,7 @@
         <v>205.1279294112551</v>
       </c>
       <c r="R38" t="n">
-        <v>119.3213857543469</v>
+        <v>119.3213857543465</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>96.02169477844809</v>
       </c>
       <c r="K39" t="n">
-        <v>143.214785952948</v>
+        <v>164.1163704868912</v>
       </c>
       <c r="L39" t="n">
         <v>220.674713337685</v>
       </c>
       <c r="M39" t="n">
-        <v>257.516981911283</v>
+        <v>257.5169819112829</v>
       </c>
       <c r="N39" t="n">
         <v>264.3326901567798</v>
@@ -37645,7 +37645,7 @@
         <v>129.7347107762848</v>
       </c>
       <c r="R39" t="n">
-        <v>63.10213598643099</v>
+        <v>42.20055145248784</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,22 +37706,22 @@
         <v>376.528138377468</v>
       </c>
       <c r="L40" t="n">
-        <v>549.1129041757997</v>
+        <v>126.6786801677582</v>
       </c>
       <c r="M40" t="n">
-        <v>328.9799017360333</v>
+        <v>597.4244716286179</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3890316291963</v>
+        <v>130.3890316291961</v>
       </c>
       <c r="O40" t="n">
-        <v>120.4353747858813</v>
+        <v>444.3167206834923</v>
       </c>
       <c r="P40" t="n">
         <v>454.0703335997437</v>
       </c>
       <c r="Q40" t="n">
-        <v>241.2404335594083</v>
+        <v>71.34874177725442</v>
       </c>
       <c r="R40" t="n">
         <v>17.10825321951248</v>
@@ -37803,7 +37803,7 @@
         <v>205.1279294112551</v>
       </c>
       <c r="R41" t="n">
-        <v>119.3213857543469</v>
+        <v>119.3213857543465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>34.99235430160241</v>
       </c>
       <c r="J42" t="n">
-        <v>96.02169477844809</v>
+        <v>75.12011024450486</v>
       </c>
       <c r="K42" t="n">
         <v>164.1163704868912</v>
       </c>
       <c r="L42" t="n">
-        <v>199.7731288037418</v>
+        <v>220.674713337685</v>
       </c>
       <c r="M42" t="n">
         <v>257.516981911283</v>
@@ -38016,13 +38016,13 @@
         <v>72.81902995333174</v>
       </c>
       <c r="J44" t="n">
-        <v>161.2202808058107</v>
+        <v>161.2202808058109</v>
       </c>
       <c r="K44" t="n">
         <v>241.6274088814521</v>
       </c>
       <c r="L44" t="n">
-        <v>299.760166874481</v>
+        <v>299.7601668744812</v>
       </c>
       <c r="M44" t="n">
         <v>333.5409432485699</v>
@@ -38037,10 +38037,10 @@
         <v>273.1548671435703</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.1279294112546</v>
+        <v>205.1279294112551</v>
       </c>
       <c r="R44" t="n">
-        <v>119.3213857543474</v>
+        <v>119.3213857543465</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.09076976765916</v>
+        <v>34.99235430160241</v>
       </c>
       <c r="J45" t="n">
-        <v>96.02169477844811</v>
+        <v>75.12011024450486</v>
       </c>
       <c r="K45" t="n">
         <v>164.1163704868912</v>
@@ -38180,7 +38180,7 @@
         <v>98.99434588137149</v>
       </c>
       <c r="L46" t="n">
-        <v>295.9307142701584</v>
+        <v>295.9307142701581</v>
       </c>
       <c r="M46" t="n">
         <v>597.4244716286179</v>
@@ -38189,7 +38189,7 @@
         <v>577.1150954247969</v>
       </c>
       <c r="O46" t="n">
-        <v>544.3437073371756</v>
+        <v>544.3437073371758</v>
       </c>
       <c r="P46" t="n">
         <v>103.0532689832366</v>
